--- a/GE.xlsx
+++ b/GE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797EA40-A7E7-45A8-BD6C-2AF2688589F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB9575B-D94D-42AB-A383-1A04D62ADC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18280" yWindow="3430" windowWidth="21150" windowHeight="16400" xr2:uid="{C6994B68-815E-42BE-BCD0-42486AF2D9AC}"/>
+    <workbookView xWindow="-21645" yWindow="105" windowWidth="21720" windowHeight="17280" xr2:uid="{C6994B68-815E-42BE-BCD0-42486AF2D9AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -114,14 +114,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -157,22 +163,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E99575C4-0AB6-4107-9F5B-0CA56A2E6EE4}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -504,71 +514,71 @@
   <dimension ref="L2:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L2" s="1" t="s">
+    <row r="2" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="6">
         <v>201.46</v>
       </c>
     </row>
-    <row r="3" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L3" s="1" t="s">
+    <row r="3" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="7">
         <v>1073.2905049999999</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L4" s="1" t="s">
+    <row r="4" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="7">
         <f>+M2*M3</f>
         <v>216225.10513730001</v>
       </c>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L5" s="1" t="s">
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="7">
         <f>13619+982+37741</f>
         <v>52342</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L6" s="1" t="s">
+    <row r="6" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="7">
         <v>17234</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L7" s="1" t="s">
+    <row r="7" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="7">
         <f>+M4-M5+M6</f>
         <v>181117.10513730001</v>
       </c>
@@ -586,17 +596,17 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="A17:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C2" s="1">
         <v>2022</v>
       </c>
@@ -609,162 +619,162 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>7837</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>9318</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>10274</v>
       </c>
     </row>
-    <row r="4" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>18345</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>22641</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>24847</v>
       </c>
     </row>
-    <row r="5" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>2957</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>3389</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>3581</v>
       </c>
     </row>
-    <row r="6" spans="2:5" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <f>SUM(C3:C5)</f>
         <v>29139</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <f t="shared" ref="D6:E6" si="0">SUM(D3:D5)</f>
         <v>35348</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>38702</v>
       </c>
     </row>
-    <row r="7" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f>8151+10836</f>
         <v>18987</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f>9900+13039</f>
         <v>22939</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f>10341+13967</f>
         <v>24308</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f t="shared" ref="C8:D8" si="1">+C6-C7</f>
         <v>10152</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f t="shared" si="1"/>
         <v>12409</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f>+E6-E7</f>
         <v>14394</v>
       </c>
     </row>
-    <row r="9" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>3672</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>4045</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>4437</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>808</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>1011</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>1286</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f t="shared" ref="C11:D11" si="2">+C10+C9</f>
         <v>4480</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="2"/>
         <v>5056</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f>+E10+E9</f>
         <v>5723</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f t="shared" ref="C12:D12" si="3">+C8-C11</f>
         <v>5672</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f t="shared" si="3"/>
         <v>7353</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f>+E8-E11</f>
         <v>8671</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -778,94 +788,94 @@
         <v>962</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f>+C12-C13</f>
         <v>5503</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f>+D12-D13</f>
         <v>6359</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f>+E12-E13</f>
         <v>7709</v>
       </c>
     </row>
-    <row r="16" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>4027</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>4609</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>5817</v>
       </c>
     </row>
-    <row r="17" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>662</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>862</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>1032</v>
       </c>
     </row>
-    <row r="18" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <f>+C16-C17</f>
         <v>3365</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <f>+D16-D17</f>
         <v>3747</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <f>+E16-E17</f>
         <v>4785</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <f>+D6/C6-1</f>
         <v>0.21308212361440004</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="4">
         <f>+E6/D6-1</f>
         <v>9.488514201652154E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <f>+C8/C6</f>
         <v>0.34839905281581385</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <f>+D8/D6</f>
         <v>0.35105239334615818</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <f>+E8/E6</f>
         <v>0.37191876388817113</v>
       </c>
